--- a/src/results/alfred/P-001--P-002--P-004--P-005--P-006/gpt-4.1-mini/result_analysis/user_story_conflict_verifying_analysis/needed_human_check/user_story_conflict_resolution_analysis_by_human.xlsx
+++ b/src/results/alfred/P-001--P-002--P-004--P-005--P-006/gpt-4.1-mini/result_analysis/user_story_conflict_verifying_analysis/needed_human_check/user_story_conflict_resolution_analysis_by_human.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\016_Python_SRD_Generator\src\results\alfred\P-001--P-002--P-004--P-005--P-006\gpt-4.1-mini\result_analysis\user_story_conflict_verifying_analysis\needed_human_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E8BE3B-42FB-414C-8DE4-C399C366E995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C28DF81-8E00-4761-B0AE-265B8C9F7344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED06254A-CC52-4F89-86B6-F9F27AE16215}"/>
   </bookViews>
   <sheets>
     <sheet name="user_story_conflict_resolution_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -777,9 +790,6 @@
     <t>Partially agreed, it may be better if dev allow caregiver to control workflow freely</t>
   </si>
   <si>
-    <t>Partially agreed. Although the original is vague in conflicting, but the new one is not vague and no conflicting</t>
-  </si>
-  <si>
     <t>Partially agreed, the new one may not be conflicting in general, but may be so in some special cases</t>
   </si>
   <si>
@@ -789,10 +799,13 @@
     <t>Partially agreed, since the first user story in the new one is still quite vague</t>
   </si>
   <si>
-    <t>Partially agreed. Although the original is vague in conflicting, but the new one is not vague and consistent</t>
-  </si>
-  <si>
     <t>Human check on LLM's resolution proposals</t>
+  </si>
+  <si>
+    <t>Partially disagreed. Although the original is vague in conflicting, but the new one is not too vague and a bit consistent</t>
+  </si>
+  <si>
+    <t>Partially disagreed. Although the original is vague in conflicting, but the new one is not too vague and no major conflicting</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3ED11E-6C57-44BB-AF8C-6E7AA241BFC7}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,10 +2466,10 @@
         <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -2479,7 +2492,7 @@
         <v>174</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -2545,7 +2558,7 @@
         <v>172</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -2634,7 +2647,7 @@
         <v>174</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -2815,7 +2828,7 @@
         <v>168</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>184</v>
@@ -2847,11 +2860,11 @@
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F53" s="2" t="str">
         <f>TEXT(COUNTIF(F2:F52, "AGREED") / COUNTA(F2:F52),"0%")&amp; " AGREED"</f>
-        <v>33% AGREED</v>
+        <v>29% AGREED</v>
       </c>
     </row>
   </sheetData>
